--- a/New_quote.xlsx
+++ b/New_quote.xlsx
@@ -580,7 +580,7 @@
       <c r="D6" s="10" t="n"/>
       <c r="G6" s="23" t="inlineStr">
         <is>
-          <t>Date: 2024-01-30</t>
+          <t>Date: 2024-02-05</t>
         </is>
       </c>
     </row>
